--- a/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>9.030100334448161</v>
+        <v>275</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.361204013377927</v>
+      </c>
+      <c r="G2" t="n">
         <v>41</v>
       </c>
-      <c r="F2" t="n">
-        <v>19.51219512195122</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>35</v>
       </c>
-      <c r="H2" t="n">
-        <v>41</v>
-      </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
+        <v>14.63414634146341</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.317073170731707</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>85.36585365853658</v>
+      </c>
+      <c r="P2" t="n">
+        <v>92.6829268292683</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.8536585365853658</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9210526315789473</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>81.11227416173115</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>74.76682380512844</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>9.293680297397769</v>
+        <v>265</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.806691449814126</v>
+      </c>
+      <c r="G3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
-        <v>29.78723404255319</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>36</v>
       </c>
-      <c r="H3" t="n">
-        <v>44</v>
-      </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>27.65957446808511</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.14893617021277</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>76.59574468085107</v>
+      </c>
+      <c r="P3" t="n">
+        <v>85.1063829787234</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.9444444444444444</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.723404255319149</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.8192771084337349</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>71.52281084689422</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>46.61412675573182</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.020408163265306</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>13</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="P4" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.96</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>93.30804125036708</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>84.23626743789751</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>542</v>
       </c>
       <c r="C5" t="n">
-        <v>51.8450184501845</v>
+        <v>506</v>
       </c>
       <c r="D5" t="n">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.46863468634686</v>
+      </c>
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="F5" t="n">
-        <v>67.04545454545455</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>64</v>
       </c>
-      <c r="H5" t="n">
-        <v>79</v>
-      </c>
       <c r="I5" t="n">
+        <v>64</v>
+      </c>
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>20</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
       <c r="L5" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="M5" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="P5" t="n">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.7954545454545454</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.8860759493670886</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>85.76667796047546</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>34.75715631750511</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>414</v>
       </c>
       <c r="C6" t="n">
-        <v>7.729468599033816</v>
+        <v>386</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.212560386473431</v>
+      </c>
+      <c r="G6" t="n">
         <v>60</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="G6" t="n">
-        <v>55</v>
-      </c>
-      <c r="H6" t="n">
-        <v>56</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="P6" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>96.96777009632153</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>83.90897437126813</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="G7" t="n">
         <v>49</v>
       </c>
-      <c r="F7" t="n">
-        <v>22.44897959183674</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>39</v>
       </c>
-      <c r="H7" t="n">
-        <v>41</v>
-      </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
+        <v>10.20408163265306</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.163265306122449</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>79.59183673469387</v>
+      </c>
+      <c r="P7" t="n">
+        <v>81.63265306122449</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.7959183673469388</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.8863636363636364</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>94.70912154282919</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>70.32283492214883</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>252</v>
       </c>
       <c r="C8" t="n">
-        <v>9.126984126984127</v>
+        <v>229</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.126984126984127</v>
+      </c>
+      <c r="G8" t="n">
         <v>32</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
         <v>6.25</v>
       </c>
-      <c r="G8" t="n">
-        <v>30</v>
-      </c>
-      <c r="H8" t="n">
-        <v>31</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.9375</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.967741935483871</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>96.79357691187978</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>93.53863288117338</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>547</v>
       </c>
       <c r="C9" t="n">
-        <v>36.0146252285192</v>
+        <v>546</v>
       </c>
       <c r="D9" t="n">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
+        <v>141</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.95978062157221</v>
+      </c>
+      <c r="G9" t="n">
         <v>79</v>
       </c>
-      <c r="F9" t="n">
-        <v>50.63291139240506</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>70</v>
       </c>
-      <c r="H9" t="n">
-        <v>76</v>
-      </c>
       <c r="I9" t="n">
+        <v>70</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>25</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>34.17721518987342</v>
+      </c>
+      <c r="M9" t="n">
+        <v>34.17721518987342</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>88.60759493670885</v>
+      </c>
+      <c r="P9" t="n">
+        <v>88.60759493670885</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.75</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.759493670886076</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.7547169811320755</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>79.02464068341608</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>48.61874376396685</v>
       </c>
     </row>

--- a/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,110 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Gesamtwörter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fehlende Wörter</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Zusätzliche Wörter</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Fast korrekt fehlend</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Fast korrekt zusätzlich</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>WER</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Erweiterter WER</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Precision erweitert</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Recall erweitert</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>F1-Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>F1-Score erweitert</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Cosine Similarity</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>BLEU Score</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Durchlauf</t>
         </is>
@@ -522,54 +547,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>299</v>
+      </c>
+      <c r="B2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08359999999999999</v>
+      </c>
+      <c r="F2" t="n">
         <v>41</v>
       </c>
-      <c r="B2" t="n">
+      <c r="G2" t="n">
         <v>36</v>
       </c>
-      <c r="C2" t="n">
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I2" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>0.2683</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>0.122</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>0.8571</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>0.9231</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>0.878</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Q2" t="n">
         <v>0.9474</v>
       </c>
-      <c r="M2" t="n">
+      <c r="R2" t="n">
         <v>0.8675</v>
       </c>
-      <c r="N2" t="n">
+      <c r="S2" t="n">
         <v>0.9351</v>
       </c>
-      <c r="O2" t="n">
+      <c r="T2" t="n">
         <v>0.8111</v>
       </c>
-      <c r="P2" t="n">
+      <c r="U2" t="n">
         <v>0.7477</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -577,54 +617,69 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>269</v>
+      </c>
+      <c r="B3" t="n">
+        <v>265</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0781</v>
+      </c>
+      <c r="F3" t="n">
         <v>47</v>
       </c>
-      <c r="B3" t="n">
+      <c r="G3" t="n">
         <v>41</v>
       </c>
-      <c r="C3" t="n">
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="I3" t="n">
         <v>13</v>
       </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="L3" t="n">
         <v>0.4043</v>
       </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
         <v>0.234</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
         <v>0.7593</v>
       </c>
-      <c r="J3" t="n">
+      <c r="O3" t="n">
         <v>0.82</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>0.8723</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>0.9535</v>
       </c>
-      <c r="M3" t="n">
+      <c r="R3" t="n">
         <v>0.8119</v>
       </c>
-      <c r="N3" t="n">
+      <c r="S3" t="n">
         <v>0.8817</v>
       </c>
-      <c r="O3" t="n">
+      <c r="T3" t="n">
         <v>0.7151999999999999</v>
       </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
         <v>0.4661</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -632,54 +687,69 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>98</v>
+      </c>
+      <c r="B4" t="n">
+        <v>97</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="F4" t="n">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
+      <c r="G4" t="n">
         <v>13</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.0769</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>0.0769</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>0.9286</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>0.9286</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="R4" t="n">
         <v>0.963</v>
       </c>
-      <c r="N4" t="n">
+      <c r="S4" t="n">
         <v>0.963</v>
       </c>
-      <c r="O4" t="n">
+      <c r="T4" t="n">
         <v>0.9331</v>
       </c>
-      <c r="P4" t="n">
+      <c r="U4" t="n">
         <v>0.8424</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -687,54 +757,69 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>542</v>
+      </c>
+      <c r="B5" t="n">
+        <v>506</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="F5" t="n">
         <v>88</v>
       </c>
-      <c r="B5" t="n">
+      <c r="G5" t="n">
         <v>84</v>
       </c>
-      <c r="C5" t="n">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="I5" t="n">
         <v>20</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.2727</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>0.2727</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
         <v>0.8077</v>
       </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
         <v>0.8077</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>0.9545</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
         <v>0.9545</v>
       </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
         <v>0.875</v>
       </c>
-      <c r="N5" t="n">
+      <c r="S5" t="n">
         <v>0.875</v>
       </c>
-      <c r="O5" t="n">
+      <c r="T5" t="n">
         <v>0.8577</v>
       </c>
-      <c r="P5" t="n">
+      <c r="U5" t="n">
         <v>0.3476</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -742,54 +827,69 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>414</v>
+      </c>
+      <c r="B6" t="n">
+        <v>386</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="F6" t="n">
         <v>60</v>
       </c>
-      <c r="B6" t="n">
+      <c r="G6" t="n">
         <v>57</v>
       </c>
-      <c r="C6" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.0833</v>
       </c>
-      <c r="H6" t="n">
+      <c r="M6" t="n">
         <v>0.0833</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
         <v>0.9661</v>
       </c>
-      <c r="J6" t="n">
+      <c r="O6" t="n">
         <v>0.9661</v>
       </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>0.95</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Q6" t="n">
         <v>0.95</v>
       </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
         <v>0.958</v>
       </c>
-      <c r="N6" t="n">
+      <c r="S6" t="n">
         <v>0.958</v>
       </c>
-      <c r="O6" t="n">
+      <c r="T6" t="n">
         <v>0.9697</v>
       </c>
-      <c r="P6" t="n">
+      <c r="U6" t="n">
         <v>0.8391</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -797,54 +897,69 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>300</v>
+      </c>
+      <c r="B7" t="n">
+        <v>253</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1567</v>
+      </c>
+      <c r="F7" t="n">
         <v>49</v>
       </c>
-      <c r="B7" t="n">
+      <c r="G7" t="n">
         <v>45</v>
       </c>
-      <c r="C7" t="n">
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="L7" t="n">
         <v>0.1224</v>
       </c>
-      <c r="H7" t="n">
+      <c r="M7" t="n">
         <v>0.08160000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9574</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9782999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9184</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9375</v>
       </c>
       <c r="N7" t="n">
         <v>0.9574</v>
       </c>
       <c r="O7" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9184</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9574</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.9471000000000001</v>
       </c>
-      <c r="P7" t="n">
+      <c r="U7" t="n">
         <v>0.7032</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -852,54 +967,69 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>252</v>
+      </c>
+      <c r="B8" t="n">
+        <v>229</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09130000000000001</v>
+      </c>
+      <c r="F8" t="n">
         <v>32</v>
       </c>
-      <c r="B8" t="n">
+      <c r="G8" t="n">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.0625</v>
       </c>
-      <c r="H8" t="n">
+      <c r="M8" t="n">
         <v>0.0625</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9688</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9688</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.9688</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9688</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9688</v>
       </c>
       <c r="N8" t="n">
         <v>0.9688</v>
       </c>
       <c r="O8" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.9679</v>
       </c>
-      <c r="P8" t="n">
+      <c r="U8" t="n">
         <v>0.9354</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -907,54 +1037,69 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>547</v>
+      </c>
+      <c r="B9" t="n">
+        <v>546</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>141</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2596</v>
+      </c>
+      <c r="F9" t="n">
         <v>79</v>
       </c>
-      <c r="B9" t="n">
+      <c r="G9" t="n">
         <v>77</v>
       </c>
-      <c r="C9" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="I9" t="n">
         <v>25</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.3418</v>
       </c>
-      <c r="H9" t="n">
+      <c r="M9" t="n">
         <v>0.3418</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
         <v>0.7549</v>
       </c>
-      <c r="J9" t="n">
+      <c r="O9" t="n">
         <v>0.7549</v>
       </c>
-      <c r="K9" t="n">
+      <c r="P9" t="n">
         <v>0.9747</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Q9" t="n">
         <v>0.9747</v>
       </c>
-      <c r="M9" t="n">
+      <c r="R9" t="n">
         <v>0.8508</v>
       </c>
-      <c r="N9" t="n">
+      <c r="S9" t="n">
         <v>0.8508</v>
       </c>
-      <c r="O9" t="n">
+      <c r="T9" t="n">
         <v>0.7902</v>
       </c>
-      <c r="P9" t="n">
+      <c r="U9" t="n">
         <v>0.4862</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
@@ -577,19 +577,19 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>0.2683</v>
       </c>
       <c r="M2" t="n">
-        <v>0.122</v>
+        <v>0.0732</v>
       </c>
       <c r="N2" t="n">
         <v>0.8571</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9231</v>
+        <v>0.973</v>
       </c>
       <c r="P2" t="n">
         <v>0.878</v>
@@ -601,7 +601,7 @@
         <v>0.8675</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9351</v>
+        <v>0.96</v>
       </c>
       <c r="T2" t="n">
         <v>0.8111</v>
@@ -620,16 +620,16 @@
         <v>269</v>
       </c>
       <c r="B3" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0781</v>
+        <v>0.0706</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -760,25 +760,25 @@
         <v>542</v>
       </c>
       <c r="B5" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1347</v>
+        <v>0.1199</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
@@ -790,34 +790,34 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8077</v>
+        <v>0.8113</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8077</v>
+        <v>0.8113</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9545</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9545</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.875</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>0.875</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="T5" t="n">
         <v>0.8577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3476</v>
+        <v>0.3512</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -830,16 +830,16 @@
         <v>414</v>
       </c>
       <c r="B6" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.0531</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -860,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0833</v>
+        <v>0.0667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0833</v>
+        <v>0.0667</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9661</v>
+        <v>0.9828</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9661</v>
+        <v>0.9828</v>
       </c>
       <c r="P6" t="n">
         <v>0.95</v>
@@ -878,16 +878,16 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>0.958</v>
+        <v>0.9661</v>
       </c>
       <c r="S6" t="n">
-        <v>0.958</v>
+        <v>0.9661</v>
       </c>
       <c r="T6" t="n">
         <v>0.9697</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8391</v>
+        <v>0.8787</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1224</v>
+        <v>0.102</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0612</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9574</v>
+        <v>0.9782999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9782999999999999</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0.9184</v>
@@ -948,16 +948,16 @@
         <v>0.9375</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9375</v>
+        <v>0.9474</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9574</v>
+        <v>0.9677</v>
       </c>
       <c r="T7" t="n">
         <v>0.9471000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7032</v>
+        <v>0.758</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1000,28 +1000,28 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0625</v>
+        <v>0.0312</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0625</v>
+        <v>0.0312</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9688</v>
+        <v>0.9697</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9688</v>
+        <v>0.9697</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9688</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9688</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9688</v>
+        <v>0.9846</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9688</v>
+        <v>0.9846</v>
       </c>
       <c r="T8" t="n">
         <v>0.9679</v>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3418</v>
+        <v>0.3165</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3418</v>
+        <v>0.3165</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7549</v>
+        <v>0.77</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7549</v>
+        <v>0.77</v>
       </c>
       <c r="P9" t="n">
         <v>0.9747</v>
@@ -1088,10 +1088,10 @@
         <v>0.9747</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8508</v>
+        <v>0.8603</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8508</v>
+        <v>0.8603</v>
       </c>
       <c r="T9" t="n">
         <v>0.7902</v>

--- a/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Qwen7b/results.xlsx
@@ -547,64 +547,64 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.0325</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2683</v>
+        <v>0.2051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0732</v>
+        <v>0.1026</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8571</v>
+        <v>0.8605</v>
       </c>
       <c r="O2" t="n">
-        <v>0.973</v>
+        <v>0.9024</v>
       </c>
       <c r="P2" t="n">
-        <v>0.878</v>
+        <v>0.9487</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9474</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8675</v>
+        <v>0.9024</v>
       </c>
       <c r="S2" t="n">
-        <v>0.96</v>
+        <v>0.9487</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8111</v>
+        <v>0.8918</v>
       </c>
       <c r="U2" t="n">
         <v>0.7477</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0706</v>
+        <v>0.0233</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0102</v>
+        <v>0.0109</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1199</v>
+        <v>0.0979</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0531</v>
+        <v>0.0582</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1567</v>
+        <v>0.169</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.034</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2596</v>
+        <v>0.2408</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
